--- a/data/pca/factorExposure/factorExposure_2017-03-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01533000016831857</v>
+        <v>0.01030872535493587</v>
       </c>
       <c r="C2">
-        <v>0.01806517002966064</v>
+        <v>-0.04115773978786971</v>
       </c>
       <c r="D2">
-        <v>-0.02933023729328646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02991377644391478</v>
+      </c>
+      <c r="E2">
+        <v>0.04001834003581412</v>
+      </c>
+      <c r="F2">
+        <v>0.003664788431860022</v>
+      </c>
+      <c r="G2">
+        <v>0.1038276828472653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0188748360079562</v>
+        <v>0.04030847194238095</v>
       </c>
       <c r="C3">
-        <v>-0.001361886405412713</v>
+        <v>-0.1006818218913282</v>
       </c>
       <c r="D3">
-        <v>-0.09062419494216933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01808741156683684</v>
+      </c>
+      <c r="E3">
+        <v>0.103178936136038</v>
+      </c>
+      <c r="F3">
+        <v>-0.001003842549999361</v>
+      </c>
+      <c r="G3">
+        <v>0.1584004754907895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02865710388658197</v>
+        <v>0.05586401629106211</v>
       </c>
       <c r="C4">
-        <v>0.006817809039675048</v>
+        <v>-0.06857121306310794</v>
       </c>
       <c r="D4">
-        <v>-0.07869709885437555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02488260705188301</v>
+      </c>
+      <c r="E4">
+        <v>0.03566697670263137</v>
+      </c>
+      <c r="F4">
+        <v>0.008351819745391101</v>
+      </c>
+      <c r="G4">
+        <v>0.1005002265771636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01375051257980029</v>
+        <v>0.03617087848000232</v>
       </c>
       <c r="C6">
-        <v>0.00849078837011491</v>
+        <v>-0.05072881483157853</v>
       </c>
       <c r="D6">
-        <v>-0.07447832856803156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01743311258443163</v>
+      </c>
+      <c r="E6">
+        <v>0.04060166133971529</v>
+      </c>
+      <c r="F6">
+        <v>0.00357035820600997</v>
+      </c>
+      <c r="G6">
+        <v>0.08808261082831859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004508206771633133</v>
+        <v>0.02054468617431119</v>
       </c>
       <c r="C7">
-        <v>0.01054419474779721</v>
+        <v>-0.03949605121538032</v>
       </c>
       <c r="D7">
-        <v>-0.03674669122770748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01404649041774212</v>
+      </c>
+      <c r="E7">
+        <v>0.009063512360311846</v>
+      </c>
+      <c r="F7">
+        <v>-0.004457464758966432</v>
+      </c>
+      <c r="G7">
+        <v>0.1228183912477664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003782738174627797</v>
+        <v>0.002427673711539047</v>
       </c>
       <c r="C8">
-        <v>0.003596409370406927</v>
+        <v>-0.02371573775148654</v>
       </c>
       <c r="D8">
-        <v>0.004242047930781693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003958718104463414</v>
+      </c>
+      <c r="E8">
+        <v>0.03170812341291217</v>
+      </c>
+      <c r="F8">
+        <v>0.003700769078381111</v>
+      </c>
+      <c r="G8">
+        <v>0.07052725567944745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01436930641679219</v>
+        <v>0.0341929648048835</v>
       </c>
       <c r="C9">
-        <v>0.00691477374528945</v>
+        <v>-0.04977326974279327</v>
       </c>
       <c r="D9">
-        <v>-0.05737618421409402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01652311772163407</v>
+      </c>
+      <c r="E9">
+        <v>0.02464686624275894</v>
+      </c>
+      <c r="F9">
+        <v>0.005975073767594436</v>
+      </c>
+      <c r="G9">
+        <v>0.1003387084356268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1383258293375281</v>
+        <v>0.09813159394289751</v>
       </c>
       <c r="C10">
-        <v>-0.1071991954238521</v>
+        <v>0.1843508232006944</v>
       </c>
       <c r="D10">
-        <v>0.1104089179301047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01548705888535399</v>
+      </c>
+      <c r="E10">
+        <v>0.02100117576186231</v>
+      </c>
+      <c r="F10">
+        <v>-0.02167218976095171</v>
+      </c>
+      <c r="G10">
+        <v>0.05745012853154105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.00246214578051322</v>
+        <v>0.03437138921429891</v>
       </c>
       <c r="C11">
-        <v>-0.0006741097999983446</v>
+        <v>-0.05316607338044105</v>
       </c>
       <c r="D11">
-        <v>-0.05155355984994641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.00271586416799783</v>
+      </c>
+      <c r="E11">
+        <v>0.01986079127461503</v>
+      </c>
+      <c r="F11">
+        <v>0.01811227585098233</v>
+      </c>
+      <c r="G11">
+        <v>0.09072934682384236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004774157750086119</v>
+        <v>0.03592430634778948</v>
       </c>
       <c r="C12">
-        <v>0.003659506536645999</v>
+        <v>-0.04783603800349715</v>
       </c>
       <c r="D12">
-        <v>-0.04432865449059353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006775392423660184</v>
+      </c>
+      <c r="E12">
+        <v>0.01060703131450965</v>
+      </c>
+      <c r="F12">
+        <v>0.0006686351374121864</v>
+      </c>
+      <c r="G12">
+        <v>0.08263609760210269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01820362426574971</v>
+        <v>0.01530903674145887</v>
       </c>
       <c r="C13">
-        <v>0.01286281885845979</v>
+        <v>-0.04210491245311752</v>
       </c>
       <c r="D13">
-        <v>-0.03515117465755977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.026811218574829</v>
+      </c>
+      <c r="E13">
+        <v>0.04005217885508638</v>
+      </c>
+      <c r="F13">
+        <v>-3.86073356501933e-05</v>
+      </c>
+      <c r="G13">
+        <v>0.1411316964341323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.003853887438235757</v>
+        <v>0.007926116508110832</v>
       </c>
       <c r="C14">
-        <v>0.005605916758722733</v>
+        <v>-0.02839847707375503</v>
       </c>
       <c r="D14">
-        <v>-0.01886589684021472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01036049728759187</v>
+      </c>
+      <c r="E14">
+        <v>0.009823335942156113</v>
+      </c>
+      <c r="F14">
+        <v>-0.007672383111656968</v>
+      </c>
+      <c r="G14">
+        <v>0.1073534550750335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005778190307084747</v>
+        <v>0.03311973625718251</v>
       </c>
       <c r="C16">
-        <v>-0.003322861240954271</v>
+        <v>-0.04630685012364683</v>
       </c>
       <c r="D16">
-        <v>-0.04125110983743232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002131050630261943</v>
+      </c>
+      <c r="E16">
+        <v>0.01646621569457879</v>
+      </c>
+      <c r="F16">
+        <v>-0.0005369976647407323</v>
+      </c>
+      <c r="G16">
+        <v>0.09250144750805861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01112174728228939</v>
+        <v>0.02220870009255376</v>
       </c>
       <c r="C19">
-        <v>0.007800299736507101</v>
+        <v>-0.05097932531635763</v>
       </c>
       <c r="D19">
-        <v>-0.0382814002347371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01965301252608524</v>
+      </c>
+      <c r="E19">
+        <v>0.08386668619644842</v>
+      </c>
+      <c r="F19">
+        <v>0.01441872502187851</v>
+      </c>
+      <c r="G19">
+        <v>0.1386295217445723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.005154991670210656</v>
+        <v>0.01546543944964925</v>
       </c>
       <c r="C20">
-        <v>0.009316303490324663</v>
+        <v>-0.04158757305011562</v>
       </c>
       <c r="D20">
-        <v>-0.03287153236662715</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01446587986662799</v>
+      </c>
+      <c r="E20">
+        <v>0.0398018382147486</v>
+      </c>
+      <c r="F20">
+        <v>-0.01549983604377237</v>
+      </c>
+      <c r="G20">
+        <v>0.1113432735016123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0128263300822556</v>
+        <v>0.01156231629416106</v>
       </c>
       <c r="C21">
-        <v>0.006468740815214859</v>
+        <v>-0.03873146011600946</v>
       </c>
       <c r="D21">
-        <v>-0.01966040799221994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01958561296103161</v>
+      </c>
+      <c r="E21">
+        <v>0.05311042111765272</v>
+      </c>
+      <c r="F21">
+        <v>-0.004023353157863577</v>
+      </c>
+      <c r="G21">
+        <v>0.1387568272346947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001802406457462661</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0001572817525797374</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.000781411330869634</v>
+      </c>
+      <c r="E22">
+        <v>0.005659137852948355</v>
+      </c>
+      <c r="F22">
+        <v>0.002140568884259792</v>
+      </c>
+      <c r="G22">
+        <v>0.007508937099218685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00180790552251643</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0001568371260012086</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0007775250207115076</v>
+      </c>
+      <c r="E23">
+        <v>0.005636507671736687</v>
+      </c>
+      <c r="F23">
+        <v>0.002144060588311142</v>
+      </c>
+      <c r="G23">
+        <v>0.00739732431514299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0006316093828034272</v>
+        <v>0.02824914271795137</v>
       </c>
       <c r="C24">
-        <v>0.006895488208101032</v>
+        <v>-0.050842760512615</v>
       </c>
       <c r="D24">
-        <v>-0.04453932364628677</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007445900478191325</v>
+      </c>
+      <c r="E24">
+        <v>0.01430708260444947</v>
+      </c>
+      <c r="F24">
+        <v>0.01024928380507977</v>
+      </c>
+      <c r="G24">
+        <v>0.09141537098077805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01612878812370335</v>
+        <v>0.04229105570381585</v>
       </c>
       <c r="C25">
-        <v>0.00120150507231651</v>
+        <v>-0.05797842344592098</v>
       </c>
       <c r="D25">
-        <v>-0.05879789367776164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01141787429336125</v>
+      </c>
+      <c r="E25">
+        <v>0.005926133802838652</v>
+      </c>
+      <c r="F25">
+        <v>0.003786445148105307</v>
+      </c>
+      <c r="G25">
+        <v>0.09914848650193699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0123364409143201</v>
+        <v>0.01339257643799583</v>
       </c>
       <c r="C26">
-        <v>0.01785597432991304</v>
+        <v>-0.01271792936079607</v>
       </c>
       <c r="D26">
-        <v>-0.0004383143101204166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0242717675953127</v>
+      </c>
+      <c r="E26">
+        <v>0.01048466008568892</v>
+      </c>
+      <c r="F26">
+        <v>-0.007462080252218028</v>
+      </c>
+      <c r="G26">
+        <v>0.08327502482999836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1899842932263944</v>
+        <v>0.1258635667744312</v>
       </c>
       <c r="C28">
-        <v>-0.1289506956332452</v>
+        <v>0.241454381673809</v>
       </c>
       <c r="D28">
-        <v>0.1424767548938538</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006579471340523621</v>
+      </c>
+      <c r="E28">
+        <v>0.009409041513649128</v>
+      </c>
+      <c r="F28">
+        <v>-0.0169246590338331</v>
+      </c>
+      <c r="G28">
+        <v>0.04858021666319644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009076752770815877</v>
+        <v>0.00855432960033297</v>
       </c>
       <c r="C29">
-        <v>0.001415808874778403</v>
+        <v>-0.02291305167094332</v>
       </c>
       <c r="D29">
-        <v>-0.01661540222169341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009435312548950626</v>
+      </c>
+      <c r="E29">
+        <v>0.006375106651922197</v>
+      </c>
+      <c r="F29">
+        <v>-0.01409176114531056</v>
+      </c>
+      <c r="G29">
+        <v>0.09903128557198211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01258199133660498</v>
+        <v>0.04126753443851331</v>
       </c>
       <c r="C30">
-        <v>0.02054430508076091</v>
+        <v>-0.06820570752792909</v>
       </c>
       <c r="D30">
-        <v>-0.09936858133897755</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02926912795567589</v>
+      </c>
+      <c r="E30">
+        <v>0.0641682078858354</v>
+      </c>
+      <c r="F30">
+        <v>0.04083746647672876</v>
+      </c>
+      <c r="G30">
+        <v>0.1346359011219994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02555553615653507</v>
+        <v>0.05324686270733021</v>
       </c>
       <c r="C31">
-        <v>-0.012665742541212</v>
+        <v>-0.03834981420064588</v>
       </c>
       <c r="D31">
-        <v>-0.03052319607435414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003814732833343859</v>
+      </c>
+      <c r="E31">
+        <v>-0.0008882071358160612</v>
+      </c>
+      <c r="F31">
+        <v>-0.04026673062292858</v>
+      </c>
+      <c r="G31">
+        <v>0.09864162618889492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0006549939769542275</v>
+        <v>0.001977384760172244</v>
       </c>
       <c r="C32">
-        <v>-0.009748643738773344</v>
+        <v>-0.02274361225864576</v>
       </c>
       <c r="D32">
-        <v>0.0005440466454505294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002623599125632078</v>
+      </c>
+      <c r="E32">
+        <v>0.03906712034516759</v>
+      </c>
+      <c r="F32">
+        <v>0.03989827463722586</v>
+      </c>
+      <c r="G32">
+        <v>0.08686309765328175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009804029524689929</v>
+        <v>0.02780114720869167</v>
       </c>
       <c r="C33">
-        <v>0.006419945692410907</v>
+        <v>-0.05029985876227049</v>
       </c>
       <c r="D33">
-        <v>-0.04166948445451785</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01621250711586679</v>
+      </c>
+      <c r="E33">
+        <v>0.04773680615679241</v>
+      </c>
+      <c r="F33">
+        <v>0.01357848044119159</v>
+      </c>
+      <c r="G33">
+        <v>0.162269753460654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.009311412024362479</v>
+        <v>0.03956960982014148</v>
       </c>
       <c r="C34">
-        <v>-0.01370123546923039</v>
+        <v>-0.05939825443414502</v>
       </c>
       <c r="D34">
-        <v>-0.05547692564894435</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004190752043984302</v>
+      </c>
+      <c r="E34">
+        <v>0.01114644888935437</v>
+      </c>
+      <c r="F34">
+        <v>0.02110260870980675</v>
+      </c>
+      <c r="G34">
+        <v>0.09417457858853093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01467578411164501</v>
+        <v>0.01586879191744544</v>
       </c>
       <c r="C36">
-        <v>0.002305968680902005</v>
+        <v>-0.009777810420873207</v>
       </c>
       <c r="D36">
-        <v>-0.004170338169527771</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01279026055960897</v>
+      </c>
+      <c r="E36">
+        <v>0.01068009629706098</v>
+      </c>
+      <c r="F36">
+        <v>-0.007896071413449987</v>
+      </c>
+      <c r="G36">
+        <v>0.09281576273924876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0163189483173629</v>
+        <v>0.03106335352906031</v>
       </c>
       <c r="C38">
-        <v>-0.02106693189572906</v>
+        <v>-0.02963999518838606</v>
       </c>
       <c r="D38">
-        <v>-0.03935106790530427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007535259819781382</v>
+      </c>
+      <c r="E38">
+        <v>0.007489388209639629</v>
+      </c>
+      <c r="F38">
+        <v>-0.01788257370180397</v>
+      </c>
+      <c r="G38">
+        <v>0.08697815631331918</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.009231022942153558</v>
+        <v>0.0365916756527328</v>
       </c>
       <c r="C39">
-        <v>0.0176171846322089</v>
+        <v>-0.07962397188204789</v>
       </c>
       <c r="D39">
-        <v>-0.09970623095120557</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01198276252132932</v>
+      </c>
+      <c r="E39">
+        <v>0.03163781272739291</v>
+      </c>
+      <c r="F39">
+        <v>0.02066442216728288</v>
+      </c>
+      <c r="G39">
+        <v>0.09002424430433706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01471197657266005</v>
+        <v>0.01344122201895929</v>
       </c>
       <c r="C40">
-        <v>0.002313803013550555</v>
+        <v>-0.04011128878572574</v>
       </c>
       <c r="D40">
-        <v>-0.0311107487895093</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01502536663193497</v>
+      </c>
+      <c r="E40">
+        <v>0.03290720735174339</v>
+      </c>
+      <c r="F40">
+        <v>-0.01091307819103664</v>
+      </c>
+      <c r="G40">
+        <v>0.1243750874471969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01468558168353555</v>
+        <v>0.02052829099911611</v>
       </c>
       <c r="C41">
-        <v>-0.006794184506454111</v>
+        <v>-0.002812895213704961</v>
       </c>
       <c r="D41">
-        <v>0.0100468655922747</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004595162022408104</v>
+      </c>
+      <c r="E41">
+        <v>0.00821410458465254</v>
+      </c>
+      <c r="F41">
+        <v>-0.0151539284267739</v>
+      </c>
+      <c r="G41">
+        <v>0.08560138687372089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03964644463406677</v>
+        <v>0.008273370276886597</v>
       </c>
       <c r="C42">
-        <v>0.08532201089208109</v>
+        <v>-0.03294828647927622</v>
       </c>
       <c r="D42">
-        <v>-0.1265470831603217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08821164662918103</v>
+      </c>
+      <c r="E42">
+        <v>0.01295988600546245</v>
+      </c>
+      <c r="F42">
+        <v>-0.0402222879821886</v>
+      </c>
+      <c r="G42">
+        <v>-0.02443707195807361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01528804254281677</v>
+        <v>0.03486587688768606</v>
       </c>
       <c r="C43">
-        <v>-0.006353361941676088</v>
+        <v>-0.01848941305361278</v>
       </c>
       <c r="D43">
-        <v>0.01073833296507228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006094004900595856</v>
+      </c>
+      <c r="E43">
+        <v>0.02191749699799746</v>
+      </c>
+      <c r="F43">
+        <v>-0.007667914174833998</v>
+      </c>
+      <c r="G43">
+        <v>0.1194615337854402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0001436313534804912</v>
+        <v>0.01354769015558662</v>
       </c>
       <c r="C44">
-        <v>0.003131393068334247</v>
+        <v>-0.05939302829035673</v>
       </c>
       <c r="D44">
-        <v>-0.04893030023450259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007067088514749796</v>
+      </c>
+      <c r="E44">
+        <v>0.0262559389425178</v>
+      </c>
+      <c r="F44">
+        <v>-0.005998046054163173</v>
+      </c>
+      <c r="G44">
+        <v>0.1101001222031117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007510537883231585</v>
+        <v>0.008445482324089898</v>
       </c>
       <c r="C46">
-        <v>0.006238960340952952</v>
+        <v>-0.01478800522205256</v>
       </c>
       <c r="D46">
-        <v>0.005005159335497002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01263750042473409</v>
+      </c>
+      <c r="E46">
+        <v>0.0020341574304586</v>
+      </c>
+      <c r="F46">
+        <v>-0.01671534520095004</v>
+      </c>
+      <c r="G46">
+        <v>0.1069085654529587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02328081430888054</v>
+        <v>0.07794255512195551</v>
       </c>
       <c r="C47">
-        <v>-0.01903085306273322</v>
+        <v>-0.069274616677075</v>
       </c>
       <c r="D47">
-        <v>-0.07414364390732837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004974282922889813</v>
+      </c>
+      <c r="E47">
+        <v>-0.007476492896916446</v>
+      </c>
+      <c r="F47">
+        <v>-0.05386313375531209</v>
+      </c>
+      <c r="G47">
+        <v>0.08378007641338583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008719483550189183</v>
+        <v>0.01845999328801943</v>
       </c>
       <c r="C48">
-        <v>-0.005166004728112584</v>
+        <v>-0.01319217584280582</v>
       </c>
       <c r="D48">
-        <v>-0.01553621728777604</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.00248551253390037</v>
+      </c>
+      <c r="E48">
+        <v>0.007019539603752932</v>
+      </c>
+      <c r="F48">
+        <v>-0.01914610718837793</v>
+      </c>
+      <c r="G48">
+        <v>0.09885854592134768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03286876362871328</v>
+        <v>0.07532652324289023</v>
       </c>
       <c r="C50">
-        <v>-0.02400757764043471</v>
+        <v>-0.07181778833132714</v>
       </c>
       <c r="D50">
-        <v>-0.06792451743396839</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002200006180507682</v>
+      </c>
+      <c r="E50">
+        <v>-0.003989437472970549</v>
+      </c>
+      <c r="F50">
+        <v>-0.05413064795681895</v>
+      </c>
+      <c r="G50">
+        <v>0.09361330642161429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008053288930126995</v>
+        <v>0.01430137974479026</v>
       </c>
       <c r="C51">
-        <v>0.0006574132782936732</v>
+        <v>-0.03720590159016886</v>
       </c>
       <c r="D51">
-        <v>-0.02589671567139855</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01065949699953452</v>
+      </c>
+      <c r="E51">
+        <v>0.0309127159959746</v>
+      </c>
+      <c r="F51">
+        <v>0.01957173296139725</v>
+      </c>
+      <c r="G51">
+        <v>0.1250935037181788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03885764926712494</v>
+        <v>0.08196157358558338</v>
       </c>
       <c r="C53">
-        <v>-0.02777668835690282</v>
+        <v>-0.08436251784815253</v>
       </c>
       <c r="D53">
-        <v>-0.1245438257296916</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003457274197847826</v>
+      </c>
+      <c r="E53">
+        <v>-0.0262915419494698</v>
+      </c>
+      <c r="F53">
+        <v>-0.06172053347025386</v>
+      </c>
+      <c r="G53">
+        <v>0.09339238604287826</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01694546189509128</v>
+        <v>0.03120638753202309</v>
       </c>
       <c r="C54">
-        <v>-0.01632156848693461</v>
+        <v>-0.01843375916533917</v>
       </c>
       <c r="D54">
-        <v>0.002866682801479337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001073285108311854</v>
+      </c>
+      <c r="E54">
+        <v>0.02051426190830537</v>
+      </c>
+      <c r="F54">
+        <v>-0.00624708956782368</v>
+      </c>
+      <c r="G54">
+        <v>0.1073259727514672</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02169668399281186</v>
+        <v>0.07193984057857418</v>
       </c>
       <c r="C55">
-        <v>-0.01673740621958665</v>
+        <v>-0.06759498632207629</v>
       </c>
       <c r="D55">
-        <v>-0.1000674329828876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005021927797730774</v>
+      </c>
+      <c r="E55">
+        <v>-0.02417712616242848</v>
+      </c>
+      <c r="F55">
+        <v>-0.06217666260539861</v>
+      </c>
+      <c r="G55">
+        <v>0.06990272939724276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04433848629662619</v>
+        <v>0.1364418829074944</v>
       </c>
       <c r="C56">
-        <v>-0.03631424573835833</v>
+        <v>-0.1077853566387369</v>
       </c>
       <c r="D56">
-        <v>-0.1591552998797242</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01257709239102389</v>
+      </c>
+      <c r="E56">
+        <v>-0.03623394673185555</v>
+      </c>
+      <c r="F56">
+        <v>-0.07926120115022449</v>
+      </c>
+      <c r="G56">
+        <v>0.04463550984282267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02027712993890229</v>
+        <v>0.006026153367360465</v>
       </c>
       <c r="C57">
-        <v>0.01293715357981532</v>
+        <v>-0.006682337427521302</v>
       </c>
       <c r="D57">
-        <v>-0.03141072852159563</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02285222352670971</v>
+      </c>
+      <c r="E57">
+        <v>0.02530825856004749</v>
+      </c>
+      <c r="F57">
+        <v>0.005498357123294512</v>
+      </c>
+      <c r="G57">
+        <v>0.02316642673562006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.02204019497717615</v>
+        <v>0.05094064026634235</v>
       </c>
       <c r="C58">
-        <v>-0.01305297357449213</v>
+        <v>-0.0429434567197261</v>
       </c>
       <c r="D58">
-        <v>-0.1122723222319656</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02274859280826439</v>
+      </c>
+      <c r="E58">
+        <v>0.8930741717830105</v>
+      </c>
+      <c r="F58">
+        <v>-0.3210328371105641</v>
+      </c>
+      <c r="G58">
+        <v>-0.2403668461193025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2139993390554496</v>
+        <v>0.1599676619736211</v>
       </c>
       <c r="C59">
-        <v>-0.1520985492199053</v>
+        <v>0.205988452288485</v>
       </c>
       <c r="D59">
-        <v>0.1149534130034222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0114881351947877</v>
+      </c>
+      <c r="E59">
+        <v>0.02086301540668444</v>
+      </c>
+      <c r="F59">
+        <v>-0.002373474339308184</v>
+      </c>
+      <c r="G59">
+        <v>0.04246383027087069</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1883624201865305</v>
+        <v>0.2876289388065002</v>
       </c>
       <c r="C60">
-        <v>-0.1110050241503899</v>
+        <v>-0.1099151482059779</v>
       </c>
       <c r="D60">
-        <v>-0.1582731907613422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01242868178148798</v>
+      </c>
+      <c r="E60">
+        <v>0.01935194227370367</v>
+      </c>
+      <c r="F60">
+        <v>0.3395441197266032</v>
+      </c>
+      <c r="G60">
+        <v>-0.1609611367211517</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.00320689267336872</v>
+        <v>0.03865866310726245</v>
       </c>
       <c r="C61">
-        <v>0.001843081757827546</v>
+        <v>-0.06562578470579304</v>
       </c>
       <c r="D61">
-        <v>-0.07542326133714834</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005931308374106671</v>
+      </c>
+      <c r="E61">
+        <v>0.02645257131295092</v>
+      </c>
+      <c r="F61">
+        <v>0.01256071983940243</v>
+      </c>
+      <c r="G61">
+        <v>0.0982469409642508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006076265598759552</v>
+        <v>0.01484297618585229</v>
       </c>
       <c r="C63">
-        <v>0.004456446395298097</v>
+        <v>-0.03005508168893672</v>
       </c>
       <c r="D63">
-        <v>-0.02492925349422965</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008748731685939943</v>
+      </c>
+      <c r="E63">
+        <v>0.006971085228812489</v>
+      </c>
+      <c r="F63">
+        <v>-0.01418930365186892</v>
+      </c>
+      <c r="G63">
+        <v>0.09482449051387941</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02640094110182168</v>
+        <v>0.04931538232942573</v>
       </c>
       <c r="C64">
-        <v>-0.01247849886882311</v>
+        <v>-0.04842066321774968</v>
       </c>
       <c r="D64">
-        <v>-0.05798368151924786</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006534168774522236</v>
+      </c>
+      <c r="E64">
+        <v>0.00899771344351811</v>
+      </c>
+      <c r="F64">
+        <v>0.005964156384638809</v>
+      </c>
+      <c r="G64">
+        <v>0.09996523297025192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03071486139092188</v>
+        <v>0.07484135679590703</v>
       </c>
       <c r="C65">
-        <v>-0.0007918663544109669</v>
+        <v>-0.05770303549272691</v>
       </c>
       <c r="D65">
-        <v>-0.1137088565986626</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01706388713123486</v>
+      </c>
+      <c r="E65">
+        <v>0.04391186252110058</v>
+      </c>
+      <c r="F65">
+        <v>0.02600223793049544</v>
+      </c>
+      <c r="G65">
+        <v>0.044991254906284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005749142056076492</v>
+        <v>0.05071187313046659</v>
       </c>
       <c r="C66">
-        <v>0.01462228986440811</v>
+        <v>-0.1064479025837308</v>
       </c>
       <c r="D66">
-        <v>-0.1410212132689161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01213647072764185</v>
+      </c>
+      <c r="E66">
+        <v>0.04505043959332753</v>
+      </c>
+      <c r="F66">
+        <v>0.03215484613170202</v>
+      </c>
+      <c r="G66">
+        <v>0.1052918127765943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03687754191311078</v>
+        <v>0.05405916072761075</v>
       </c>
       <c r="C67">
-        <v>-0.03158472557424587</v>
+        <v>-0.03316554067102538</v>
       </c>
       <c r="D67">
-        <v>-0.05941433745073578</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.00612910650717856</v>
+      </c>
+      <c r="E67">
+        <v>-0.002536672854408279</v>
+      </c>
+      <c r="F67">
+        <v>-0.01685687489457112</v>
+      </c>
+      <c r="G67">
+        <v>0.07437204879665803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2179865172812018</v>
+        <v>0.1553524299514843</v>
       </c>
       <c r="C68">
-        <v>-0.1310885650591117</v>
+        <v>0.2698300155360089</v>
       </c>
       <c r="D68">
-        <v>0.1770613830563298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005709560735140231</v>
+      </c>
+      <c r="E68">
+        <v>0.01149914678651591</v>
+      </c>
+      <c r="F68">
+        <v>-0.03718508586099536</v>
+      </c>
+      <c r="G68">
+        <v>0.03102226401112338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03007633073656866</v>
+        <v>0.08251148545663681</v>
       </c>
       <c r="C69">
-        <v>-0.02849141592873677</v>
+        <v>-0.07005606769927933</v>
       </c>
       <c r="D69">
-        <v>-0.07730028160189051</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008990682591030743</v>
+      </c>
+      <c r="E69">
+        <v>-0.02099739870390493</v>
+      </c>
+      <c r="F69">
+        <v>-0.03649798894595977</v>
+      </c>
+      <c r="G69">
+        <v>0.1019916326626438</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.176558200239839</v>
+        <v>0.1412403631445755</v>
       </c>
       <c r="C71">
-        <v>-0.1138866380977193</v>
+        <v>0.2290450361270147</v>
       </c>
       <c r="D71">
-        <v>0.1212888632330402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002737636069350989</v>
+      </c>
+      <c r="E71">
+        <v>0.03138740586943873</v>
+      </c>
+      <c r="F71">
+        <v>-0.02835947510318725</v>
+      </c>
+      <c r="G71">
+        <v>0.07169485203174664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01453449801663244</v>
+        <v>0.0850798074450297</v>
       </c>
       <c r="C72">
-        <v>-0.0177479164456255</v>
+        <v>-0.06867260159045536</v>
       </c>
       <c r="D72">
-        <v>-0.1076354194964558</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008230605359048796</v>
+      </c>
+      <c r="E72">
+        <v>-0.007675310513750384</v>
+      </c>
+      <c r="F72">
+        <v>0.03322269246916876</v>
+      </c>
+      <c r="G72">
+        <v>0.08863402069163721</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2318791173425705</v>
+        <v>0.3765467186024665</v>
       </c>
       <c r="C73">
-        <v>-0.1301149515549388</v>
+        <v>-0.1172739864355907</v>
       </c>
       <c r="D73">
-        <v>-0.2901532229128056</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02242363121545849</v>
+      </c>
+      <c r="E73">
+        <v>0.1088741679836336</v>
+      </c>
+      <c r="F73">
+        <v>0.5777736911040174</v>
+      </c>
+      <c r="G73">
+        <v>-0.2911578806267355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04635910806817863</v>
+        <v>0.1046989235135061</v>
       </c>
       <c r="C74">
-        <v>-0.03985650666444231</v>
+        <v>-0.1088877035272284</v>
       </c>
       <c r="D74">
-        <v>-0.1692828730928048</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009467366271993455</v>
+      </c>
+      <c r="E74">
+        <v>-0.009858155297521315</v>
+      </c>
+      <c r="F74">
+        <v>-0.06791383680127565</v>
+      </c>
+      <c r="G74">
+        <v>0.08287176058046206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1131057840929945</v>
+        <v>0.2479582820015815</v>
       </c>
       <c r="C75">
-        <v>-0.09218136040867965</v>
+        <v>-0.1524942362404611</v>
       </c>
       <c r="D75">
-        <v>-0.3005692210705999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03134379755129205</v>
+      </c>
+      <c r="E75">
+        <v>-0.07660638108133239</v>
+      </c>
+      <c r="F75">
+        <v>-0.1618154659507314</v>
+      </c>
+      <c r="G75">
+        <v>-0.0182197230732886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.0531268128007344</v>
+        <v>0.1179784439096565</v>
       </c>
       <c r="C76">
-        <v>-0.05075970445085984</v>
+        <v>-0.108569142508548</v>
       </c>
       <c r="D76">
-        <v>-0.1969809771665437</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01774344871271963</v>
+      </c>
+      <c r="E76">
+        <v>-0.02982397159441778</v>
+      </c>
+      <c r="F76">
+        <v>-0.09750540680007722</v>
+      </c>
+      <c r="G76">
+        <v>0.05792573435643511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0165421864013105</v>
+        <v>0.07095945478662388</v>
       </c>
       <c r="C77">
-        <v>-0.0001600520008396281</v>
+        <v>-0.06189639668314705</v>
       </c>
       <c r="D77">
-        <v>-0.0842231104512073</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01052907841563138</v>
+      </c>
+      <c r="E77">
+        <v>0.05210722084726629</v>
+      </c>
+      <c r="F77">
+        <v>0.01137329336384734</v>
+      </c>
+      <c r="G77">
+        <v>0.06466148683232809</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.008371805855501256</v>
+        <v>0.04250640706091603</v>
       </c>
       <c r="C78">
-        <v>-0.001091078781384112</v>
+        <v>-0.04824796220618405</v>
       </c>
       <c r="D78">
-        <v>-0.06506930977606319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006088576659198771</v>
+      </c>
+      <c r="E78">
+        <v>0.0335183373546485</v>
+      </c>
+      <c r="F78">
+        <v>0.03464132137024776</v>
+      </c>
+      <c r="G78">
+        <v>0.1043273182696105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0001952639363986071</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0004921627056511709</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0001958185490189143</v>
+      </c>
+      <c r="E79">
+        <v>0.002240219572603992</v>
+      </c>
+      <c r="F79">
+        <v>0.001086241051497505</v>
+      </c>
+      <c r="G79">
+        <v>0.0007338858227072415</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03364018426662679</v>
+        <v>0.04249153771610978</v>
       </c>
       <c r="C80">
-        <v>-0.009865245130761381</v>
+        <v>-0.05150231600649688</v>
       </c>
       <c r="D80">
-        <v>-0.07481604349094308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01327917317267828</v>
+      </c>
+      <c r="E80">
+        <v>0.02782086770323329</v>
+      </c>
+      <c r="F80">
+        <v>0.01060397652128432</v>
+      </c>
+      <c r="G80">
+        <v>0.05128740922683893</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06337969843761865</v>
+        <v>0.1370733580904996</v>
       </c>
       <c r="C81">
-        <v>-0.05098632350573339</v>
+        <v>-0.0968316096121765</v>
       </c>
       <c r="D81">
-        <v>-0.1659581934892437</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01511317857998701</v>
+      </c>
+      <c r="E81">
+        <v>-0.04089678188315544</v>
+      </c>
+      <c r="F81">
+        <v>-0.1248287746389577</v>
+      </c>
+      <c r="G81">
+        <v>0.01996283226813484</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.137167980302159</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08236383238976681</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01066881606864409</v>
+      </c>
+      <c r="E82">
+        <v>-0.1091601633181596</v>
+      </c>
+      <c r="F82">
+        <v>-0.05573235356850302</v>
+      </c>
+      <c r="G82">
+        <v>0.0577297580942152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01336581889117243</v>
+        <v>0.03623568023789809</v>
       </c>
       <c r="C83">
-        <v>-0.00437010448381818</v>
+        <v>-0.02885289925712545</v>
       </c>
       <c r="D83">
-        <v>-0.02295446223734013</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006220834711996163</v>
+      </c>
+      <c r="E83">
+        <v>0.03271986951589081</v>
+      </c>
+      <c r="F83">
+        <v>0.02700325494417036</v>
+      </c>
+      <c r="G83">
+        <v>0.0628682188974275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.09612693419726911</v>
+        <v>0.2109633732826094</v>
       </c>
       <c r="C85">
-        <v>-0.06535480718013835</v>
+        <v>-0.1470451928227896</v>
       </c>
       <c r="D85">
-        <v>-0.262348614747507</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01710230124135588</v>
+      </c>
+      <c r="E85">
+        <v>-0.1082793339909881</v>
+      </c>
+      <c r="F85">
+        <v>-0.10861621883191</v>
+      </c>
+      <c r="G85">
+        <v>-0.0602496621655901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01549079003878475</v>
+        <v>0.01375334118476266</v>
       </c>
       <c r="C86">
-        <v>-0.004844434358134912</v>
+        <v>-0.02491528428859051</v>
       </c>
       <c r="D86">
-        <v>-0.03616725737437448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01162004878427717</v>
+      </c>
+      <c r="E86">
+        <v>0.05376061378311089</v>
+      </c>
+      <c r="F86">
+        <v>0.01458012261561368</v>
+      </c>
+      <c r="G86">
+        <v>0.1926589576263904</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00307472644008312</v>
+        <v>0.02163037764845294</v>
       </c>
       <c r="C87">
-        <v>0.0123676702772759</v>
+        <v>-0.01898480561535587</v>
       </c>
       <c r="D87">
-        <v>-0.03066917594376439</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01225814188402092</v>
+      </c>
+      <c r="E87">
+        <v>0.09826745924444993</v>
+      </c>
+      <c r="F87">
+        <v>0.002767200928636089</v>
+      </c>
+      <c r="G87">
+        <v>0.1206932503779106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04857616920513434</v>
+        <v>0.09336408623911242</v>
       </c>
       <c r="C88">
-        <v>-0.006220925142424036</v>
+        <v>-0.06885588734148672</v>
       </c>
       <c r="D88">
-        <v>-0.04264128399336915</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02210974242624206</v>
+      </c>
+      <c r="E88">
+        <v>-0.004729116089428182</v>
+      </c>
+      <c r="F88">
+        <v>-0.02067543444464672</v>
+      </c>
+      <c r="G88">
+        <v>0.1029871075848626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3312025234649172</v>
+        <v>0.2328290338091251</v>
       </c>
       <c r="C89">
-        <v>-0.2109435975238069</v>
+        <v>0.3680740729639614</v>
       </c>
       <c r="D89">
-        <v>0.2114463805262443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0002162075769319174</v>
+      </c>
+      <c r="E89">
+        <v>-0.01863825622256941</v>
+      </c>
+      <c r="F89">
+        <v>-0.02491007992493315</v>
+      </c>
+      <c r="G89">
+        <v>0.06859267135382971</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.271360431094848</v>
+        <v>0.2077114695165647</v>
       </c>
       <c r="C90">
-        <v>-0.1768007111431567</v>
+        <v>0.3174000255662828</v>
       </c>
       <c r="D90">
-        <v>0.1899205550785513</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004672430258507833</v>
+      </c>
+      <c r="E90">
+        <v>-0.0005249495698406119</v>
+      </c>
+      <c r="F90">
+        <v>-0.04568635104930012</v>
+      </c>
+      <c r="G90">
+        <v>0.04312722979531597</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09538364638109892</v>
+        <v>0.1850268060119475</v>
       </c>
       <c r="C91">
-        <v>-0.080087508714278</v>
+        <v>-0.1406029633805929</v>
       </c>
       <c r="D91">
-        <v>-0.2199475211284775</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02210910906771677</v>
+      </c>
+      <c r="E91">
+        <v>-0.06938521786450808</v>
+      </c>
+      <c r="F91">
+        <v>-0.1354881306617876</v>
+      </c>
+      <c r="G91">
+        <v>0.03490884279746382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2286339721025509</v>
+        <v>0.1993681229126708</v>
       </c>
       <c r="C92">
-        <v>-0.1851091251956581</v>
+        <v>0.2571592461239753</v>
       </c>
       <c r="D92">
-        <v>0.0983048076806271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03811085123426348</v>
+      </c>
+      <c r="E92">
+        <v>0.03615705417427147</v>
+      </c>
+      <c r="F92">
+        <v>-0.060213234662602</v>
+      </c>
+      <c r="G92">
+        <v>0.1121338708491423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2895939642649759</v>
+        <v>0.231887646936956</v>
       </c>
       <c r="C93">
-        <v>-0.1951531432405399</v>
+        <v>0.3126439297417988</v>
       </c>
       <c r="D93">
-        <v>0.1601057377019472</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01142249462642311</v>
+      </c>
+      <c r="E93">
+        <v>0.00165062451316695</v>
+      </c>
+      <c r="F93">
+        <v>-0.04418073928152938</v>
+      </c>
+      <c r="G93">
+        <v>0.05846476887387065</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1486673421970801</v>
+        <v>0.3214125657579909</v>
       </c>
       <c r="C94">
-        <v>-0.09281022674919794</v>
+        <v>-0.1820317319692001</v>
       </c>
       <c r="D94">
-        <v>-0.2826914298460857</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02027854583256512</v>
+      </c>
+      <c r="E94">
+        <v>-0.2422519970226247</v>
+      </c>
+      <c r="F94">
+        <v>-0.4695982713880359</v>
+      </c>
+      <c r="G94">
+        <v>-0.4060721087479585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.00479436093533328</v>
+        <v>0.1003749321068147</v>
       </c>
       <c r="C95">
-        <v>-0.01226764859960091</v>
+        <v>-0.08920898746019543</v>
       </c>
       <c r="D95">
-        <v>-0.1232072785484878</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009802347259888261</v>
+      </c>
+      <c r="E95">
+        <v>0.09017418249221826</v>
+      </c>
+      <c r="F95">
+        <v>0.1743831272823501</v>
+      </c>
+      <c r="G95">
+        <v>-0.0005806119437849567</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.135114230700762</v>
+        <v>0.1944733267597588</v>
       </c>
       <c r="C98">
-        <v>-0.107726975189869</v>
+        <v>-0.04460085864843134</v>
       </c>
       <c r="D98">
-        <v>-0.1289923018171252</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01257974532235028</v>
+      </c>
+      <c r="E98">
+        <v>0.08438197056126259</v>
+      </c>
+      <c r="F98">
+        <v>0.2353355437993817</v>
+      </c>
+      <c r="G98">
+        <v>-0.02696050510702268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008810761821984975</v>
+        <v>0.008337660980087567</v>
       </c>
       <c r="C101">
-        <v>0.001411909477179694</v>
+        <v>-0.0229362167220897</v>
       </c>
       <c r="D101">
-        <v>-0.01655747837477322</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.00927617893741638</v>
+      </c>
+      <c r="E101">
+        <v>0.006142623847478251</v>
+      </c>
+      <c r="F101">
+        <v>-0.01502101126395101</v>
+      </c>
+      <c r="G101">
+        <v>0.09805557181566821</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05721529475009581</v>
+        <v>0.1144404656660984</v>
       </c>
       <c r="C102">
-        <v>-0.03063662365069472</v>
+        <v>-0.08335406105568835</v>
       </c>
       <c r="D102">
-        <v>-0.1356206966449902</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0009177169309907585</v>
+      </c>
+      <c r="E102">
+        <v>-0.03571310311912408</v>
+      </c>
+      <c r="F102">
+        <v>-0.03775875865343597</v>
+      </c>
+      <c r="G102">
+        <v>0.01333997049392539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5526708689212492</v>
+        <v>0.02107410154126161</v>
       </c>
       <c r="C104">
-        <v>0.8226175497015138</v>
+        <v>0.03018651381876541</v>
       </c>
       <c r="D104">
-        <v>0.02471039791003733</v>
+        <v>0.9877050732085293</v>
+      </c>
+      <c r="E104">
+        <v>-0.05472135124474447</v>
+      </c>
+      <c r="F104">
+        <v>-0.03412002285157526</v>
+      </c>
+      <c r="G104">
+        <v>-0.04005077262012363</v>
       </c>
     </row>
   </sheetData>
